--- a/Data/COVID-19_Trial-1_Stage-2_Decoded_JYI.xlsx
+++ b/Data/COVID-19_Trial-1_Stage-2_Decoded_JYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF05416-EC68-4243-A821-E0E5B81D0580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C94D5-3922-4F94-BA54-81198BD4D1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="6180" windowWidth="21600" windowHeight="9420" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB61FEA8-4E5B-8D40-A9BC-7922E6904BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t xml:space="preserve">Exp 1 </t>
   </si>
@@ -116,9 +116,6 @@
   <si>
     <t>NA</t>
   </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,</t>
-  </si>
 </sst>
 </file>
 
@@ -187,12 +184,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA11BDE-7002-6745-B854-DC0E92656C68}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V85" sqref="V85"/>
+    <sheetView tabSelected="1" topLeftCell="Q16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,7 +520,8 @@
     <col min="11" max="12" width="7.125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="9" customWidth="1"/>
     <col min="21" max="21" width="17.375" style="9" customWidth="1"/>
     <col min="22" max="22" width="15" style="10" customWidth="1"/>
     <col min="23" max="23" width="11.875" style="10" customWidth="1"/>
@@ -576,19 +574,19 @@
       <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -619,15 +617,19 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="14">
-        <v>5.5149091431166366E-7</v>
-      </c>
-      <c r="W3" s="14">
+      <c r="S3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="9">
+        <v>2.2902008113079327E-12</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1.8517902374577607E-12</v>
+      </c>
+      <c r="V3" s="10">
+        <v>1.6872378823016984E-9</v>
+      </c>
+      <c r="W3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -658,12 +660,17 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="V4" s="14">
-        <v>4.7938578897020162E-7</v>
+      <c r="S4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1.3429334002220808E-12</v>
+      </c>
+      <c r="U4" s="9">
+        <v>9.8982922241890446E-13</v>
+      </c>
+      <c r="V4" s="10">
+        <v>1.1528888831029994E-9</v>
       </c>
       <c r="W4" s="10">
         <v>0</v>
@@ -696,13 +703,17 @@
       <c r="R5">
         <v>3</v>
       </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14">
-        <v>6.6866441164712858E-6</v>
+      <c r="S5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2.1295857065882932E-12</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2.4595341359080231E-12</v>
+      </c>
+      <c r="V5" s="10">
+        <v>1.6002751673330059E-9</v>
       </c>
       <c r="W5" s="10">
         <v>0</v>
@@ -732,15 +743,19 @@
       <c r="R6">
         <v>4</v>
       </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14">
-        <v>5.8120845659328287E-4</v>
-      </c>
-      <c r="W6" s="14">
+      <c r="S6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2.177823351047661E-12</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1.23042262969742E-13</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1.5975071657116172E-9</v>
+      </c>
+      <c r="W6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -768,15 +783,19 @@
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14">
-        <v>1.8958827310177923E-4</v>
-      </c>
-      <c r="W7" s="14">
+      <c r="S7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1.5351698471058636E-12</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2.4584687285945822E-12</v>
+      </c>
+      <c r="V7" s="10">
+        <v>1.5937734899970503E-9</v>
+      </c>
+      <c r="W7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -807,13 +826,17 @@
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14">
-        <v>7.0758963624908383E-6</v>
+      <c r="S8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1.031087363491304E-12</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1.1279099461276288E-12</v>
+      </c>
+      <c r="V8" s="10">
+        <v>9.6469989123991677E-10</v>
       </c>
       <c r="W8" s="10">
         <v>0</v>
@@ -846,15 +869,19 @@
       <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14">
-        <v>4.7913846625858432E-7</v>
-      </c>
-      <c r="W9" s="14">
+      <c r="S9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="9">
+        <v>7.0398484848832376E-13</v>
+      </c>
+      <c r="U9" s="9">
+        <v>6.4219178042270199E-13</v>
+      </c>
+      <c r="V9" s="10">
+        <v>8.9457472053022988E-10</v>
+      </c>
+      <c r="W9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -885,15 +912,19 @@
       <c r="R10">
         <v>8</v>
       </c>
-      <c r="S10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14">
-        <v>3.6923626621734318E-3</v>
-      </c>
-      <c r="W10" s="14">
+      <c r="S10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2.1545738158957981E-12</v>
+      </c>
+      <c r="U10" s="9">
+        <v>2.3158232847499763E-12</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1.6005153082514127E-9</v>
+      </c>
+      <c r="W10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -921,15 +952,19 @@
       <c r="R11">
         <v>9</v>
       </c>
-      <c r="S11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14">
-        <v>8.5139078786154005E-5</v>
-      </c>
-      <c r="W11" s="14">
+      <c r="S11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1.7817738762898103E-12</v>
+      </c>
+      <c r="U11" s="9">
+        <v>2.5201679646825494E-12</v>
+      </c>
+      <c r="V11" s="10">
+        <v>1.597370300902899E-9</v>
+      </c>
+      <c r="W11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -957,14 +992,19 @@
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="13"/>
+      <c r="S12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="9">
+        <v>9.341608632748657E-13</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1.2817899868352076E-12</v>
+      </c>
       <c r="V12" s="10">
-        <v>2.6725018946806475E-7</v>
-      </c>
-      <c r="W12" s="14">
+        <v>1.1564916810228225E-9</v>
+      </c>
+      <c r="W12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -992,15 +1032,20 @@
       <c r="R13">
         <v>11</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="V13" s="14">
-        <v>508.20856727624113</v>
-      </c>
-      <c r="W13" s="14">
-        <v>289.99327160039422</v>
+      <c r="T13" s="9">
+        <v>23.528924437127628</v>
+      </c>
+      <c r="U13" s="9">
+        <v>39.526937210723688</v>
+      </c>
+      <c r="V13" s="10">
+        <v>91387.109937019603</v>
+      </c>
+      <c r="W13" s="10">
+        <v>289.99353635842891</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1027,15 +1072,19 @@
       <c r="R14">
         <v>12</v>
       </c>
-      <c r="S14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14">
-        <v>1.9995161381822571E-4</v>
-      </c>
-      <c r="W14" s="14">
+      <c r="S14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1.5049196401288137E-12</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1.2224755680620082E-13</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1.6684922894297255E-9</v>
+      </c>
+      <c r="W14" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1063,15 +1112,20 @@
       <c r="R15">
         <v>13</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="V15" s="14">
-        <v>875.35932768729788</v>
+      <c r="T15" s="9">
+        <v>257.28325369813047</v>
+      </c>
+      <c r="U15" s="9">
+        <v>356.33044908587181</v>
+      </c>
+      <c r="V15" s="10">
+        <v>106841.38943737971</v>
       </c>
       <c r="W15" s="10">
-        <v>1007.6384506392344</v>
+        <v>1007.6383190297664</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1098,15 +1152,19 @@
       <c r="R16">
         <v>14</v>
       </c>
-      <c r="S16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14">
-        <v>4.5154968292124992E-7</v>
-      </c>
-      <c r="W16" s="14">
+      <c r="S16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="9">
+        <v>9.125641166375492E-13</v>
+      </c>
+      <c r="U16" s="9">
+        <v>7.002656019753603E-13</v>
+      </c>
+      <c r="V16" s="10">
+        <v>9.2575687444967607E-10</v>
+      </c>
+      <c r="W16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1134,14 +1192,20 @@
       <c r="R17">
         <v>15</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="T17" s="9">
+        <v>236980.24905024422</v>
+      </c>
+      <c r="U17" s="9">
+        <v>2039347.7665197826</v>
+      </c>
       <c r="V17" s="10">
-        <v>6068654.1344448123</v>
-      </c>
-      <c r="W17" s="14">
-        <v>5786619.9161994411</v>
+        <v>5695200.8260635929</v>
+      </c>
+      <c r="W17" s="10">
+        <v>5786619.3724135924</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1168,14 +1232,19 @@
       <c r="R18">
         <v>16</v>
       </c>
-      <c r="S18" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="13"/>
-      <c r="V18" s="14">
-        <v>4.1289588667920742E-3</v>
-      </c>
-      <c r="W18" s="14">
+      <c r="S18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1.1251565172281616E-12</v>
+      </c>
+      <c r="U18" s="9">
+        <v>1.2454877925040975E-12</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1.1466714976757315E-9</v>
+      </c>
+      <c r="W18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1192,13 +1261,17 @@
       <c r="R19">
         <v>17</v>
       </c>
-      <c r="S19" t="s">
-        <v>21</v>
-      </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14">
-        <v>7.2022128081334502E-6</v>
+      <c r="S19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="9">
+        <v>9.2341818479533051E-13</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1.0038637147880287E-12</v>
+      </c>
+      <c r="V19" s="10">
+        <v>9.6648728019920362E-10</v>
       </c>
       <c r="W19" s="10">
         <v>0</v>
@@ -1217,15 +1290,19 @@
       <c r="R20">
         <v>18</v>
       </c>
-      <c r="S20" t="s">
-        <v>21</v>
-      </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14">
-        <v>5.9318101133530657E-3</v>
-      </c>
-      <c r="W20" s="14">
+      <c r="S20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="9">
+        <v>3.3590503733657889E-12</v>
+      </c>
+      <c r="U20" s="9">
+        <v>2.623244090651607E-12</v>
+      </c>
+      <c r="V20" s="10">
+        <v>2.0558200655351617E-9</v>
+      </c>
+      <c r="W20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1242,15 +1319,19 @@
       <c r="R21">
         <v>19</v>
       </c>
-      <c r="S21" t="s">
-        <v>21</v>
-      </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14">
-        <v>5.1953085863650109E-7</v>
-      </c>
-      <c r="W21" s="14">
+      <c r="S21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1.8818203660743068E-12</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1.5803737636312452E-12</v>
+      </c>
+      <c r="V21" s="10">
+        <v>1.5963458904759079E-9</v>
+      </c>
+      <c r="W21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1268,13 +1349,17 @@
       <c r="R22">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14">
-        <v>6.2487391628452258E-6</v>
+      <c r="S22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="9">
+        <v>9.3832137610044907E-13</v>
+      </c>
+      <c r="U22" s="9">
+        <v>1.275072645601808E-12</v>
+      </c>
+      <c r="V22" s="10">
+        <v>9.6359757094815825E-10</v>
       </c>
       <c r="W22" s="10">
         <v>0</v>
@@ -1298,15 +1383,19 @@
       <c r="R23">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14">
-        <v>4.8898269712615054E-7</v>
-      </c>
-      <c r="W23" s="14">
+      <c r="S23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1.3944017978216966E-12</v>
+      </c>
+      <c r="U23" s="9">
+        <v>2.1906774543947099E-12</v>
+      </c>
+      <c r="V23" s="10">
+        <v>1.5890196217072192E-9</v>
+      </c>
+      <c r="W23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1328,15 +1417,19 @@
       <c r="R24">
         <v>22</v>
       </c>
-      <c r="S24" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14">
-        <v>7.0739954741849935E-6</v>
-      </c>
-      <c r="W24" s="14">
+      <c r="S24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1.0304315202866616E-12</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1.0982154191152638E-12</v>
+      </c>
+      <c r="V24" s="10">
+        <v>9.638726883209893E-10</v>
+      </c>
+      <c r="W24" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1359,15 +1452,19 @@
       <c r="R25">
         <v>23</v>
       </c>
-      <c r="S25" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14">
-        <v>2.5867453411111416E-7</v>
-      </c>
-      <c r="W25" s="14">
+      <c r="S25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="9">
+        <v>7.9709528784223024E-13</v>
+      </c>
+      <c r="U25" s="9">
+        <v>8.955558472622324E-13</v>
+      </c>
+      <c r="V25" s="10">
+        <v>9.3200377797589522E-10</v>
+      </c>
+      <c r="W25" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1390,15 +1487,19 @@
       <c r="R26">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14">
-        <v>4.7916201678484153E-7</v>
-      </c>
-      <c r="W26" s="14">
+      <c r="S26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="9">
+        <v>6.2349755670773332E-13</v>
+      </c>
+      <c r="U26" s="9">
+        <v>7.1367910334447633E-13</v>
+      </c>
+      <c r="V26" s="10">
+        <v>8.9190324643601498E-10</v>
+      </c>
+      <c r="W26" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1421,15 +1522,19 @@
       <c r="R27">
         <v>25</v>
       </c>
-      <c r="S27" t="s">
-        <v>21</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14">
-        <v>2.6558363190744277E-7</v>
-      </c>
-      <c r="W27" s="14">
+      <c r="S27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="9">
+        <v>3.5932518766430248E-13</v>
+      </c>
+      <c r="U27" s="9">
+        <v>2.5214195403967525E-13</v>
+      </c>
+      <c r="V27" s="10">
+        <v>3.6885360285499851E-10</v>
+      </c>
+      <c r="W27" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1452,14 +1557,19 @@
       <c r="R28">
         <v>26</v>
       </c>
-      <c r="S28" t="s">
-        <v>21</v>
-      </c>
-      <c r="T28" s="13"/>
-      <c r="V28" s="14">
-        <v>2.4994452301664014E-7</v>
-      </c>
-      <c r="W28" s="14">
+      <c r="S28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="9">
+        <v>8.5458570625085509E-13</v>
+      </c>
+      <c r="U28" s="9">
+        <v>1.3797744430624007E-12</v>
+      </c>
+      <c r="V28" s="10">
+        <v>1.1567686082047093E-9</v>
+      </c>
+      <c r="W28" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1482,13 +1592,17 @@
       <c r="R29">
         <v>27</v>
       </c>
-      <c r="S29" t="s">
-        <v>21</v>
-      </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14">
-        <v>6.4377071079767449E-6</v>
+      <c r="S29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="9">
+        <v>2.0098612030330891E-12</v>
+      </c>
+      <c r="U29" s="9">
+        <v>2.1387698421969315E-12</v>
+      </c>
+      <c r="V29" s="10">
+        <v>1.6794889977622432E-9</v>
       </c>
       <c r="W29" s="10">
         <v>0</v>
@@ -1513,14 +1627,19 @@
       <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T30" s="13"/>
+      <c r="S30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1.2142179343718167E-12</v>
+      </c>
+      <c r="U30" s="9">
+        <v>9.7095492968297442E-14</v>
+      </c>
       <c r="V30" s="10">
-        <v>7.259337282699183E-6</v>
-      </c>
-      <c r="W30" s="14">
+        <v>1.1489887654057474E-9</v>
+      </c>
+      <c r="W30" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1543,15 +1662,19 @@
       <c r="R31">
         <v>29</v>
       </c>
-      <c r="S31" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14">
-        <v>5.5150362926103328E-7</v>
-      </c>
-      <c r="W31" s="14">
+      <c r="S31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="9">
+        <v>2.3036461934089401E-12</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1.720175397337137E-12</v>
+      </c>
+      <c r="V31" s="10">
+        <v>1.6915833277020743E-9</v>
+      </c>
+      <c r="W31" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1574,14 +1697,19 @@
       <c r="R32">
         <v>30</v>
       </c>
-      <c r="S32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T32" s="13"/>
-      <c r="V32" s="14">
-        <v>1.2723152638354944E-4</v>
-      </c>
-      <c r="W32" s="14">
+      <c r="S32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="9">
+        <v>1.0719255377100648E-12</v>
+      </c>
+      <c r="U32" s="9">
+        <v>1.2740516307456203E-12</v>
+      </c>
+      <c r="V32" s="10">
+        <v>1.1468711736504087E-9</v>
+      </c>
+      <c r="W32" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1604,15 +1732,19 @@
       <c r="R33">
         <v>31</v>
       </c>
-      <c r="S33" t="s">
-        <v>21</v>
-      </c>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="14">
-        <v>7.2628405106688341E-6</v>
-      </c>
-      <c r="W33" s="14">
+      <c r="S33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="9">
+        <v>9.4744036153759238E-13</v>
+      </c>
+      <c r="U33" s="9">
+        <v>1.0315313211770843E-12</v>
+      </c>
+      <c r="V33" s="10">
+        <v>9.6466513358324814E-10</v>
+      </c>
+      <c r="W33" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1635,14 +1767,19 @@
       <c r="R34">
         <v>32</v>
       </c>
-      <c r="S34" t="s">
-        <v>21</v>
-      </c>
-      <c r="T34" s="13"/>
-      <c r="V34" s="14">
-        <v>8.3464170488105186E-5</v>
-      </c>
-      <c r="W34" s="14">
+      <c r="S34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1.1980576338923003E-12</v>
+      </c>
+      <c r="U34" s="9">
+        <v>9.8151286206737804E-13</v>
+      </c>
+      <c r="V34" s="10">
+        <v>1.1482964266615796E-9</v>
+      </c>
+      <c r="W34" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1665,14 +1802,19 @@
       <c r="R35">
         <v>33</v>
       </c>
-      <c r="S35" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="13"/>
+      <c r="S35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-2.2890807900665408E-16</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1.8493374770712583E-16</v>
+      </c>
       <c r="V35" s="10">
-        <v>5.435502992348466E-4</v>
-      </c>
-      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="W35" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1689,15 +1831,19 @@
       <c r="R36">
         <v>34</v>
       </c>
-      <c r="S36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14">
-        <v>7.4966768604992515E-6</v>
-      </c>
-      <c r="W36" s="14">
+      <c r="S36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" s="9">
+        <v>9.516588607570785E-13</v>
+      </c>
+      <c r="U36" s="9">
+        <v>1.0240718271655047E-12</v>
+      </c>
+      <c r="V36" s="10">
+        <v>9.6392526847175179E-10</v>
+      </c>
+      <c r="W36" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1714,14 +1860,19 @@
       <c r="R37">
         <v>35</v>
       </c>
-      <c r="S37" t="s">
-        <v>21</v>
-      </c>
-      <c r="T37" s="13"/>
-      <c r="V37" s="14">
-        <v>5.0885004608272416E-7</v>
-      </c>
-      <c r="W37" s="14">
+      <c r="S37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="9">
+        <v>1.1008890946304161E-12</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1.2518735323183775E-12</v>
+      </c>
+      <c r="V37" s="10">
+        <v>1.1534948077036879E-9</v>
+      </c>
+      <c r="W37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1738,13 +1889,17 @@
       <c r="R38">
         <v>36</v>
       </c>
-      <c r="S38" t="s">
-        <v>21</v>
-      </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="14">
-        <v>3.9169802501320525E-6</v>
+      <c r="S38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="9">
+        <v>2.829774115207703E-12</v>
+      </c>
+      <c r="U38" s="9">
+        <v>2.7957101057591881E-12</v>
+      </c>
+      <c r="V38" s="10">
+        <v>2.0326296497144317E-9</v>
       </c>
       <c r="W38" s="10">
         <v>0</v>
@@ -1763,15 +1918,19 @@
       <c r="R39">
         <v>37</v>
       </c>
-      <c r="S39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="14">
-        <v>2.5831485405554733E-7</v>
-      </c>
-      <c r="W39" s="14">
+      <c r="S39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" s="9">
+        <v>7.9313881658137549E-13</v>
+      </c>
+      <c r="U39" s="9">
+        <v>9.053323274774474E-13</v>
+      </c>
+      <c r="V39" s="10">
+        <v>9.3096561922259133E-10</v>
+      </c>
+      <c r="W39" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1795,15 +1954,19 @@
       <c r="R40">
         <v>38</v>
       </c>
-      <c r="S40" t="s">
-        <v>21</v>
-      </c>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="14">
-        <v>5.748375960846137E-3</v>
-      </c>
-      <c r="W40" s="14">
+      <c r="S40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="9">
+        <v>5.4390738268037759E-14</v>
+      </c>
+      <c r="U40" s="9">
+        <v>7.7985114653969752E-13</v>
+      </c>
+      <c r="V40" s="10">
+        <v>8.8722062126121596E-10</v>
+      </c>
+      <c r="W40" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1827,15 +1990,19 @@
       <c r="R41">
         <v>39</v>
       </c>
-      <c r="S41" t="s">
-        <v>21</v>
-      </c>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="14">
-        <v>2.6768809342694061E-7</v>
-      </c>
-      <c r="W41" s="14">
+      <c r="S41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1.2273348500160619E-12</v>
+      </c>
+      <c r="U41" s="9">
+        <v>2.003667052617634E-12</v>
+      </c>
+      <c r="V41" s="10">
+        <v>1.6078165182855285E-9</v>
+      </c>
+      <c r="W41" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1859,15 +2026,20 @@
       <c r="R42">
         <v>40</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="13"/>
+      <c r="T42" s="9">
+        <v>2211.2952388577223</v>
+      </c>
+      <c r="U42" s="9">
+        <v>16201.223420712118</v>
+      </c>
       <c r="V42" s="10">
-        <v>68008.951743616955</v>
-      </c>
-      <c r="W42" s="14">
-        <v>64775.288590459691</v>
+        <v>49806.824442776371</v>
+      </c>
+      <c r="W42" s="10">
+        <v>64775.205040639972</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -1887,11 +2059,11 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="S43" t="s">
+      <c r="S43" s="11" t="s">
         <v>24</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V43" s="10" t="s">
         <v>26</v>
@@ -1934,19 +2106,19 @@
       <c r="R44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U44" s="11" t="s">
+      <c r="U44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="12" t="s">
+      <c r="W44" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1982,17 +2154,17 @@
       <c r="R45">
         <v>1</v>
       </c>
-      <c r="S45" t="s">
-        <v>21</v>
-      </c>
-      <c r="T45" s="13">
-        <v>1.3051051210921119E-12</v>
-      </c>
-      <c r="U45" s="13">
-        <v>1.2859864272811559E-12</v>
-      </c>
-      <c r="V45" s="14">
-        <v>1.5644159502325303E-6</v>
+      <c r="S45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="9">
+        <v>3.6018198224079589E-13</v>
+      </c>
+      <c r="U45" s="9">
+        <v>3.6955719631071377E-13</v>
+      </c>
+      <c r="V45" s="10">
+        <v>3.1686357491377862E-16</v>
       </c>
       <c r="W45" s="10">
         <v>0</v>
@@ -2030,17 +2202,17 @@
       <c r="R46">
         <v>2</v>
       </c>
-      <c r="S46" t="s">
-        <v>21</v>
-      </c>
-      <c r="T46" s="13">
-        <v>1.8814024428025313E-12</v>
+      <c r="S46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="9">
+        <v>6.3918744126262848E-13</v>
       </c>
       <c r="U46" s="9">
-        <v>1.8490992578606689E-12</v>
+        <v>5.4108238667787024E-13</v>
       </c>
       <c r="V46" s="10">
-        <v>1.6290743607953722E-3</v>
+        <v>3.124711194576194E-16</v>
       </c>
       <c r="W46" s="10">
         <v>0</v>
@@ -2078,17 +2250,17 @@
       <c r="R47">
         <v>3</v>
       </c>
-      <c r="S47" t="s">
-        <v>21</v>
-      </c>
-      <c r="T47" s="13">
-        <v>1.7087048256939893E-12</v>
+      <c r="S47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T47" s="9">
+        <v>5.6638880512842174E-13</v>
       </c>
       <c r="U47" s="9">
-        <v>1.9543303629533229E-12</v>
+        <v>6.2647058525868849E-13</v>
       </c>
       <c r="V47" s="10">
-        <v>7.8791163778880481E-7</v>
+        <v>3.1246833925588765E-16</v>
       </c>
       <c r="W47" s="10">
         <v>0</v>
@@ -2126,17 +2298,17 @@
       <c r="R48">
         <v>4</v>
       </c>
-      <c r="S48" t="s">
-        <v>21</v>
-      </c>
-      <c r="T48" s="13">
-        <v>1.0419435558894253E-12</v>
-      </c>
-      <c r="U48" s="13">
-        <v>1.1147899769198474E-12</v>
-      </c>
-      <c r="V48" s="14">
-        <v>7.4750941021247661E-7</v>
+      <c r="S48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="9">
+        <v>2.897773165403872E-13</v>
+      </c>
+      <c r="U48" s="9">
+        <v>3.1431029175387068E-13</v>
+      </c>
+      <c r="V48" s="10">
+        <v>1.8659752184562131E-16</v>
       </c>
       <c r="W48" s="10">
         <v>0</v>
@@ -2174,17 +2346,17 @@
       <c r="R49">
         <v>5</v>
       </c>
-      <c r="S49" t="s">
-        <v>21</v>
-      </c>
-      <c r="T49" s="13">
-        <v>1.1653242874915329E-12</v>
-      </c>
-      <c r="U49" s="13">
-        <v>1.2021378452805092E-12</v>
-      </c>
-      <c r="V49" s="14">
-        <v>1.320766230301973E-6</v>
+      <c r="S49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="9">
+        <v>3.1830742981532754E-13</v>
+      </c>
+      <c r="U49" s="9">
+        <v>3.2991840041085931E-13</v>
+      </c>
+      <c r="V49" s="10">
+        <v>2.0477330993651501E-16</v>
       </c>
       <c r="W49" s="10">
         <v>0</v>
@@ -2222,20 +2394,20 @@
       <c r="R50">
         <v>6</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="13">
-        <v>115.55017634008821</v>
+      <c r="T50" s="9">
+        <v>81.025524259835194</v>
       </c>
       <c r="U50" s="9">
-        <v>553.11416695780065</v>
+        <v>788.79390313295232</v>
       </c>
       <c r="V50" s="10">
-        <v>2447.6955632173308</v>
+        <v>2447.7117448439858</v>
       </c>
       <c r="W50" s="10">
-        <v>2335.7235361682656</v>
+        <v>2335.7228151579438</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -2270,17 +2442,17 @@
       <c r="R51">
         <v>7</v>
       </c>
-      <c r="S51" t="s">
-        <v>21</v>
-      </c>
-      <c r="T51" s="13">
-        <v>1.2970921480578943E-12</v>
-      </c>
-      <c r="U51" s="13">
-        <v>1.1988298585351949E-12</v>
-      </c>
-      <c r="V51" s="14">
-        <v>8.4938505706747822E-7</v>
+      <c r="S51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="9">
+        <v>3.5698249710543552E-13</v>
+      </c>
+      <c r="U51" s="9">
+        <v>4.4828087714091577E-13</v>
+      </c>
+      <c r="V51" s="10">
+        <v>3.3759091238819224E-16</v>
       </c>
       <c r="W51" s="10">
         <v>0</v>
@@ -2318,17 +2490,17 @@
       <c r="R52">
         <v>8</v>
       </c>
-      <c r="S52" t="s">
-        <v>21</v>
-      </c>
-      <c r="T52" s="13">
-        <v>2.6677647360494175E-12</v>
-      </c>
-      <c r="U52" s="13">
-        <v>2.9886629955160135E-12</v>
-      </c>
-      <c r="V52" s="14">
-        <v>1.5471201180034689E-6</v>
+      <c r="S52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="9">
+        <v>7.0788694877073689E-13</v>
+      </c>
+      <c r="U52" s="9">
+        <v>8.3240004881631706E-13</v>
+      </c>
+      <c r="V52" s="10">
+        <v>4.5660603919608453E-16</v>
       </c>
       <c r="W52" s="10">
         <v>0</v>
@@ -2366,17 +2538,17 @@
       <c r="R53">
         <v>9</v>
       </c>
-      <c r="S53" t="s">
-        <v>21</v>
-      </c>
-      <c r="T53" s="13">
-        <v>1.2924727815843315E-12</v>
-      </c>
-      <c r="U53" s="13">
-        <v>1.1129643473454936E-12</v>
-      </c>
-      <c r="V53" s="14">
-        <v>7.5156380645969063E-7</v>
+      <c r="S53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="9">
+        <v>3.5101235553629993E-13</v>
+      </c>
+      <c r="U53" s="9">
+        <v>3.567537165254807E-13</v>
+      </c>
+      <c r="V53" s="10">
+        <v>3.2721535876498882E-16</v>
       </c>
       <c r="W53" s="10">
         <v>0</v>
@@ -2414,17 +2586,17 @@
       <c r="R54">
         <v>10</v>
       </c>
-      <c r="S54" t="s">
-        <v>21</v>
-      </c>
-      <c r="T54" s="13">
-        <v>7.3018827255571517E-13</v>
-      </c>
-      <c r="U54" s="13">
-        <v>7.4308423053756517E-13</v>
-      </c>
-      <c r="V54" s="14">
-        <v>7.7947735250746497E-7</v>
+      <c r="S54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="9">
+        <v>1.909899233761004E-13</v>
+      </c>
+      <c r="U54" s="9">
+        <v>2.2360841136484323E-13</v>
+      </c>
+      <c r="V54" s="10">
+        <v>5.9661396180581238E-17</v>
       </c>
       <c r="W54" s="10">
         <v>0</v>
@@ -2462,17 +2634,17 @@
       <c r="R55">
         <v>11</v>
       </c>
-      <c r="S55" t="s">
-        <v>21</v>
-      </c>
-      <c r="T55" s="13">
-        <v>1.9780156681579513E-12</v>
-      </c>
-      <c r="U55" s="13">
-        <v>1.994331436847197E-12</v>
-      </c>
-      <c r="V55" s="14">
-        <v>1.4389726200471055E-6</v>
+      <c r="S55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="9">
+        <v>5.3186117188090344E-13</v>
+      </c>
+      <c r="U55" s="9">
+        <v>5.6191529698685548E-13</v>
+      </c>
+      <c r="V55" s="10">
+        <v>3.3561378263212992E-16</v>
       </c>
       <c r="W55" s="10">
         <v>0</v>
@@ -2510,17 +2682,17 @@
       <c r="R56">
         <v>12</v>
       </c>
-      <c r="S56" t="s">
-        <v>21</v>
-      </c>
-      <c r="T56" s="13">
-        <v>2.5294491590338756E-12</v>
-      </c>
-      <c r="U56" s="13">
-        <v>2.7945129669846999E-12</v>
-      </c>
-      <c r="V56" s="14">
-        <v>1.8966184109834089E-6</v>
+      <c r="S56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T56" s="9">
+        <v>9.7953312881474106E-13</v>
+      </c>
+      <c r="U56" s="9">
+        <v>9.5747442791837165E-13</v>
+      </c>
+      <c r="V56" s="10">
+        <v>4.7257089006171214E-16</v>
       </c>
       <c r="W56" s="10">
         <v>0</v>
@@ -2558,20 +2730,20 @@
       <c r="R57">
         <v>13</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="13">
-        <v>21650.569712528944</v>
+      <c r="T57" s="9">
+        <v>15181.70560651716</v>
       </c>
       <c r="U57" s="9">
-        <v>116047.51162889999</v>
+        <v>165494.8925716565</v>
       </c>
       <c r="V57" s="10">
-        <v>539444.73802044382</v>
+        <v>539453.14171540062</v>
       </c>
       <c r="W57" s="10">
-        <v>521713.58568499039</v>
+        <v>521713.56984465907</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -2606,17 +2778,17 @@
       <c r="R58">
         <v>14</v>
       </c>
-      <c r="S58" t="s">
-        <v>21</v>
-      </c>
-      <c r="T58" s="13">
-        <v>1.0871220562934331E-12</v>
-      </c>
-      <c r="U58" s="13">
-        <v>1.3210410641066089E-12</v>
-      </c>
-      <c r="V58" s="14">
-        <v>8.1646144018696688E-7</v>
+      <c r="S58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="9">
+        <v>3.5773733803360877E-13</v>
+      </c>
+      <c r="U58" s="9">
+        <v>4.0186814450915159E-13</v>
+      </c>
+      <c r="V58" s="10">
+        <v>3.3758959922775063E-16</v>
       </c>
       <c r="W58" s="10">
         <v>0</v>
@@ -2654,17 +2826,17 @@
       <c r="R59">
         <v>15</v>
       </c>
-      <c r="S59" t="s">
-        <v>21</v>
-      </c>
-      <c r="T59" s="13">
-        <v>1.3430026731295E-12</v>
-      </c>
-      <c r="U59" s="13">
-        <v>1.3511516022904757E-12</v>
-      </c>
-      <c r="V59" s="14">
-        <v>1.5208962764628448E-6</v>
+      <c r="S59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="9">
+        <v>3.7279029257237152E-13</v>
+      </c>
+      <c r="U59" s="9">
+        <v>3.8991405452956451E-13</v>
+      </c>
+      <c r="V59" s="10">
+        <v>3.2192766594647582E-16</v>
       </c>
       <c r="W59" s="10">
         <v>0</v>
@@ -2702,17 +2874,17 @@
       <c r="R60">
         <v>16</v>
       </c>
-      <c r="S60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T60" s="13">
-        <v>2.0309366105109674E-12</v>
-      </c>
-      <c r="U60" s="13">
-        <v>2.1301151393919323E-12</v>
-      </c>
-      <c r="V60" s="14">
-        <v>4.8820746913112436E-3</v>
+      <c r="S60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="9">
+        <v>5.6208526549194355E-13</v>
+      </c>
+      <c r="U60" s="9">
+        <v>5.5938580822151462E-13</v>
+      </c>
+      <c r="V60" s="10">
+        <v>3.4054495913031093E-16</v>
       </c>
       <c r="W60" s="10">
         <v>0</v>
@@ -2738,17 +2910,17 @@
       <c r="R61">
         <v>17</v>
       </c>
-      <c r="S61" t="s">
-        <v>21</v>
-      </c>
-      <c r="T61" s="13">
-        <v>-1.5519362409566E-15</v>
+      <c r="S61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T61" s="9">
+        <v>-2.0537870126108262E-14</v>
       </c>
       <c r="U61" s="9">
-        <v>1.5545962826138207E-15</v>
+        <v>1.1879709873904697E-14</v>
       </c>
       <c r="V61" s="10">
-        <v>5.4355037150406315E-4</v>
+        <v>0</v>
       </c>
       <c r="W61" s="10">
         <v>0</v>
@@ -2774,17 +2946,17 @@
       <c r="R62">
         <v>18</v>
       </c>
-      <c r="S62" t="s">
-        <v>21</v>
-      </c>
-      <c r="T62" s="13">
-        <v>1.8605458197253938E-12</v>
-      </c>
-      <c r="U62" s="13">
-        <v>2.1005713390916847E-12</v>
-      </c>
-      <c r="V62" s="14">
-        <v>3.9059769800027722E-4</v>
+      <c r="S62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="9">
+        <v>5.0396273109098055E-13</v>
+      </c>
+      <c r="U62" s="9">
+        <v>6.4729947826282844E-13</v>
+      </c>
+      <c r="V62" s="10">
+        <v>3.3563187393616343E-16</v>
       </c>
       <c r="W62" s="10">
         <v>0</v>
@@ -2810,17 +2982,17 @@
       <c r="R63">
         <v>19</v>
       </c>
-      <c r="S63" t="s">
-        <v>21</v>
-      </c>
-      <c r="T63" s="13">
-        <v>3.1464174568856146E-12</v>
-      </c>
-      <c r="U63" s="13">
-        <v>3.0501682863215301E-12</v>
-      </c>
-      <c r="V63" s="14">
-        <v>6.5124516821911949E-3</v>
+      <c r="S63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="9">
+        <v>8.8019708242562232E-13</v>
+      </c>
+      <c r="U63" s="9">
+        <v>1.145379788570793E-12</v>
+      </c>
+      <c r="V63" s="10">
+        <v>5.2958662904876688E-16</v>
       </c>
       <c r="W63" s="10">
         <v>0</v>
@@ -2846,19 +3018,19 @@
       <c r="R64">
         <v>20</v>
       </c>
-      <c r="S64" t="s">
-        <v>21</v>
-      </c>
-      <c r="T64" s="13">
-        <v>2.0409617933659982E-12</v>
+      <c r="S64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="9">
+        <v>5.2513378707467363E-13</v>
       </c>
       <c r="U64" s="9">
-        <v>2.1871644025286966E-12</v>
+        <v>7.1296724241648768E-13</v>
       </c>
       <c r="V64" s="10">
-        <v>7.8902244405477686E-7</v>
-      </c>
-      <c r="W64" s="14">
+        <v>3.1246838429593496E-16</v>
+      </c>
+      <c r="W64" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2882,17 +3054,17 @@
       <c r="R65">
         <v>21</v>
       </c>
-      <c r="S65" t="s">
-        <v>21</v>
-      </c>
-      <c r="T65" s="13">
-        <v>6.1389842497559892E-13</v>
-      </c>
-      <c r="U65" s="13">
-        <v>7.2989311190657184E-13</v>
-      </c>
-      <c r="V65" s="14">
-        <v>5.3607076397657284E-7</v>
+      <c r="S65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="9">
+        <v>2.0859805904627036E-13</v>
+      </c>
+      <c r="U65" s="9">
+        <v>1.9605080498705638E-13</v>
+      </c>
+      <c r="V65" s="10">
+        <v>1.4045131373215449E-16</v>
       </c>
       <c r="W65" s="10">
         <v>0</v>
@@ -2918,17 +3090,17 @@
       <c r="R66">
         <v>22</v>
       </c>
-      <c r="S66" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" s="13">
-        <v>3.1026293482311341E-12</v>
-      </c>
-      <c r="U66" s="13">
-        <v>3.514442169886446E-12</v>
-      </c>
-      <c r="V66" s="14">
-        <v>1.7509561474886765E-5</v>
+      <c r="S66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="9">
+        <v>8.2573483368072528E-13</v>
+      </c>
+      <c r="U66" s="9">
+        <v>9.9321996263362366E-13</v>
+      </c>
+      <c r="V66" s="10">
+        <v>4.8361624046020927E-16</v>
       </c>
       <c r="W66" s="10">
         <v>0</v>
@@ -2954,17 +3126,17 @@
       <c r="R67">
         <v>23</v>
       </c>
-      <c r="S67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T67" s="13">
-        <v>1.0270030773017558E-12</v>
-      </c>
-      <c r="U67" s="13">
-        <v>1.3462526828504317E-12</v>
-      </c>
-      <c r="V67" s="14">
-        <v>7.9205633892394461E-7</v>
+      <c r="S67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="9">
+        <v>3.6180843161902611E-13</v>
+      </c>
+      <c r="U67" s="9">
+        <v>4.0755525868081303E-13</v>
+      </c>
+      <c r="V67" s="10">
+        <v>3.3438374105323604E-16</v>
       </c>
       <c r="W67" s="10">
         <v>0</v>
@@ -2990,17 +3162,17 @@
       <c r="R68">
         <v>24</v>
       </c>
-      <c r="S68" t="s">
-        <v>21</v>
-      </c>
-      <c r="T68" s="13">
-        <v>2.9546062401746404E-12</v>
-      </c>
-      <c r="U68" s="13">
-        <v>3.2002185091722821E-12</v>
-      </c>
-      <c r="V68" s="14">
-        <v>1.6990403267995323E-6</v>
+      <c r="S68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="9">
+        <v>8.7228860420227351E-13</v>
+      </c>
+      <c r="U68" s="9">
+        <v>1.2316650577015573E-12</v>
+      </c>
+      <c r="V68" s="10">
+        <v>5.2958878042214177E-16</v>
       </c>
       <c r="W68" s="10">
         <v>0</v>
@@ -3026,17 +3198,17 @@
       <c r="R69">
         <v>25</v>
       </c>
-      <c r="S69" t="s">
-        <v>21</v>
-      </c>
-      <c r="T69" s="13">
-        <v>1.2542116642427725E-12</v>
-      </c>
-      <c r="U69" s="13">
-        <v>1.378862655883316E-12</v>
-      </c>
-      <c r="V69" s="14">
-        <v>5.4235921517242293E-7</v>
+      <c r="S69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="9">
+        <v>4.0428035902671806E-13</v>
+      </c>
+      <c r="U69" s="9">
+        <v>3.3507545591755521E-13</v>
+      </c>
+      <c r="V69" s="10">
+        <v>3.3439679030682218E-16</v>
       </c>
       <c r="W69" s="10">
         <v>0</v>
@@ -3062,17 +3234,17 @@
       <c r="R70">
         <v>26</v>
       </c>
-      <c r="S70" t="s">
-        <v>21</v>
-      </c>
-      <c r="T70" s="13">
-        <v>2.6578695806746295E-12</v>
-      </c>
-      <c r="U70" s="13">
-        <v>2.9249245718527763E-12</v>
-      </c>
-      <c r="V70" s="14">
-        <v>5.4269039324147004E-3</v>
+      <c r="S70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="9">
+        <v>7.2071958282369026E-13</v>
+      </c>
+      <c r="U70" s="9">
+        <v>9.2118549148366614E-13</v>
+      </c>
+      <c r="V70" s="10">
+        <v>4.6842626299248575E-16</v>
       </c>
       <c r="W70" s="10">
         <v>0</v>
@@ -3098,20 +3270,20 @@
       <c r="R71">
         <v>27</v>
       </c>
-      <c r="S71" t="s">
+      <c r="S71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T71" s="13">
-        <v>6628.9732235123083</v>
+      <c r="T71" s="9">
+        <v>4648.3358810275195</v>
       </c>
       <c r="U71" s="9">
-        <v>8329.3517282844095</v>
+        <v>11878.455212539189</v>
       </c>
       <c r="V71" s="10">
-        <v>27348.121916004133</v>
+        <v>27348.112745874481</v>
       </c>
       <c r="W71" s="10">
-        <v>19693.184267687779</v>
+        <v>19693.184257993926</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -3134,17 +3306,17 @@
       <c r="R72">
         <v>28</v>
       </c>
-      <c r="S72" t="s">
-        <v>21</v>
-      </c>
-      <c r="T72" s="13">
-        <v>1.9821128695952939E-12</v>
-      </c>
-      <c r="U72" s="13">
-        <v>1.9873993744286378E-12</v>
-      </c>
-      <c r="V72" s="14">
-        <v>1.4090645264565449E-6</v>
+      <c r="S72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="9">
+        <v>5.2078725523037194E-13</v>
+      </c>
+      <c r="U72" s="9">
+        <v>5.3786349870801486E-13</v>
+      </c>
+      <c r="V72" s="10">
+        <v>3.3764214934767367E-16</v>
       </c>
       <c r="W72" s="10">
         <v>0</v>
@@ -3170,17 +3342,17 @@
       <c r="R73">
         <v>29</v>
       </c>
-      <c r="S73" t="s">
-        <v>21</v>
-      </c>
-      <c r="T73" s="13">
-        <v>2.535952046022495E-12</v>
-      </c>
-      <c r="U73" s="13">
-        <v>2.4524253055778174E-12</v>
-      </c>
-      <c r="V73" s="14">
-        <v>1.7235438675662802E-6</v>
+      <c r="S73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="9">
+        <v>8.3716928581650989E-13</v>
+      </c>
+      <c r="U73" s="9">
+        <v>7.9881587426756273E-13</v>
+      </c>
+      <c r="V73" s="10">
+        <v>4.6842746152096097E-16</v>
       </c>
       <c r="W73" s="10">
         <v>0</v>
@@ -3206,17 +3378,17 @@
       <c r="R74">
         <v>30</v>
       </c>
-      <c r="S74" t="s">
-        <v>21</v>
-      </c>
-      <c r="T74" s="13">
-        <v>1.9952676092901572E-12</v>
-      </c>
-      <c r="U74" s="13">
-        <v>2.1982721752856533E-12</v>
-      </c>
-      <c r="V74" s="14">
-        <v>1.5682151426443165E-6</v>
+      <c r="S74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="9">
+        <v>6.219148450804052E-13</v>
+      </c>
+      <c r="U74" s="9">
+        <v>5.2103277638738812E-13</v>
+      </c>
+      <c r="V74" s="10">
+        <v>3.4052820274265713E-16</v>
       </c>
       <c r="W74" s="10">
         <v>0</v>
@@ -3242,17 +3414,17 @@
       <c r="R75">
         <v>31</v>
       </c>
-      <c r="S75" t="s">
-        <v>21</v>
-      </c>
-      <c r="T75" s="13">
-        <v>2.7738122546978971E-12</v>
-      </c>
-      <c r="U75" s="13">
-        <v>3.1410060319780406E-12</v>
-      </c>
-      <c r="V75" s="14">
-        <v>1.9131997521402878E-6</v>
+      <c r="S75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="9">
+        <v>7.5298142498294617E-13</v>
+      </c>
+      <c r="U75" s="9">
+        <v>9.3014517842287425E-13</v>
+      </c>
+      <c r="V75" s="10">
+        <v>4.7257088651196823E-16</v>
       </c>
       <c r="W75" s="10">
         <v>0</v>
@@ -3278,17 +3450,17 @@
       <c r="R76">
         <v>32</v>
       </c>
-      <c r="S76" t="s">
-        <v>21</v>
-      </c>
-      <c r="T76" s="13">
-        <v>1.891088262395152E-12</v>
-      </c>
-      <c r="U76" s="13">
-        <v>2.132116843461049E-12</v>
-      </c>
-      <c r="V76" s="14">
-        <v>1.4116375868039477E-6</v>
+      <c r="S76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="9">
+        <v>5.1811524406785112E-13</v>
+      </c>
+      <c r="U76" s="9">
+        <v>5.2964885709504438E-13</v>
+      </c>
+      <c r="V76" s="10">
+        <v>3.3764218927392266E-16</v>
       </c>
       <c r="W76" s="10">
         <v>0</v>
@@ -3314,17 +3486,17 @@
       <c r="R77">
         <v>33</v>
       </c>
-      <c r="S77" t="s">
-        <v>21</v>
-      </c>
-      <c r="T77" s="13">
-        <v>2.7411312122341583E-12</v>
-      </c>
-      <c r="U77" s="13">
-        <v>2.9000840168588466E-12</v>
-      </c>
-      <c r="V77" s="14">
-        <v>9.1459816705869649E-4</v>
+      <c r="S77" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" s="9">
+        <v>6.9771739194895143E-13</v>
+      </c>
+      <c r="U77" s="9">
+        <v>8.731694617177938E-13</v>
+      </c>
+      <c r="V77" s="10">
+        <v>4.5660218661209955E-16</v>
       </c>
       <c r="W77" s="10">
         <v>0</v>
@@ -3350,17 +3522,17 @@
       <c r="R78">
         <v>34</v>
       </c>
-      <c r="S78" t="s">
-        <v>21</v>
-      </c>
-      <c r="T78" s="13">
-        <v>2.9648647677056531E-12</v>
-      </c>
-      <c r="U78" s="13">
-        <v>2.8890919597246682E-12</v>
-      </c>
-      <c r="V78" s="14">
-        <v>3.7814059493103632E-3</v>
+      <c r="S78" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T78" s="9">
+        <v>8.5394819326836235E-13</v>
+      </c>
+      <c r="U78" s="9">
+        <v>9.5087200090290309E-13</v>
+      </c>
+      <c r="V78" s="10">
+        <v>4.8361553492945904E-16</v>
       </c>
       <c r="W78" s="10">
         <v>0</v>
@@ -3386,17 +3558,17 @@
       <c r="R79">
         <v>35</v>
       </c>
-      <c r="S79" t="s">
-        <v>21</v>
-      </c>
-      <c r="T79" s="13">
-        <v>1.7962211541504119E-12</v>
-      </c>
-      <c r="U79" s="13">
-        <v>1.7303518358007837E-12</v>
-      </c>
-      <c r="V79" s="14">
-        <v>1.533985400407953E-4</v>
+      <c r="S79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T79" s="9">
+        <v>4.6823650651751037E-13</v>
+      </c>
+      <c r="U79" s="9">
+        <v>7.0243931675452633E-13</v>
+      </c>
+      <c r="V79" s="10">
+        <v>3.3563185752971595E-16</v>
       </c>
       <c r="W79" s="10">
         <v>0</v>
@@ -3422,20 +3594,20 @@
       <c r="R80">
         <v>36</v>
       </c>
-      <c r="S80" t="s">
+      <c r="S80" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T80" s="13">
-        <v>22543.097233019456</v>
+      <c r="T80" s="9">
+        <v>15406.617439588661</v>
       </c>
       <c r="U80" s="9">
-        <v>134878.07660474081</v>
+        <v>192349.08602568498</v>
       </c>
       <c r="V80" s="10">
-        <v>602210.127891424</v>
+        <v>602207.94022844883</v>
       </c>
       <c r="W80" s="10">
-        <v>598903.36581852636</v>
+        <v>598903.3929136832</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -3458,17 +3630,17 @@
       <c r="R81">
         <v>37</v>
       </c>
-      <c r="S81" t="s">
-        <v>21</v>
-      </c>
-      <c r="T81" s="13">
-        <v>1.3260971880986475E-12</v>
-      </c>
-      <c r="U81" s="13">
-        <v>1.3416220813218624E-12</v>
-      </c>
-      <c r="V81" s="14">
-        <v>7.9151660757512665E-7</v>
+      <c r="S81" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T81" s="9">
+        <v>3.957712702618561E-13</v>
+      </c>
+      <c r="U81" s="9">
+        <v>3.4935732018858573E-13</v>
+      </c>
+      <c r="V81" s="10">
+        <v>3.3438373487358528E-16</v>
       </c>
       <c r="W81" s="10">
         <v>0</v>
@@ -3494,17 +3666,17 @@
       <c r="R82">
         <v>38</v>
       </c>
-      <c r="S82" t="s">
-        <v>21</v>
-      </c>
-      <c r="T82" s="13">
-        <v>2.2107276576057671E-12</v>
-      </c>
-      <c r="U82" s="13">
-        <v>2.3455913315497492E-12</v>
-      </c>
-      <c r="V82" s="14">
-        <v>1.5365658594622265E-6</v>
+      <c r="S82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T82" s="9">
+        <v>6.0753338786622278E-13</v>
+      </c>
+      <c r="U82" s="9">
+        <v>6.8204436020910379E-13</v>
+      </c>
+      <c r="V82" s="10">
+        <v>3.7317480335346785E-16</v>
       </c>
       <c r="W82" s="10">
         <v>0</v>
@@ -3530,17 +3702,17 @@
       <c r="R83">
         <v>39</v>
       </c>
-      <c r="S83" t="s">
-        <v>21</v>
-      </c>
-      <c r="T83" s="13">
-        <v>6.8171014399074087E-13</v>
-      </c>
-      <c r="U83" s="13">
-        <v>7.3498267968878131E-13</v>
-      </c>
-      <c r="V83" s="14">
-        <v>5.2406830304462984E-7</v>
+      <c r="S83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T83" s="9">
+        <v>1.9360265756012769E-13</v>
+      </c>
+      <c r="U83" s="9">
+        <v>2.0073812126759017E-13</v>
+      </c>
+      <c r="V83" s="10">
+        <v>1.2520369958090726E-16</v>
       </c>
       <c r="W83" s="10">
         <v>0</v>
@@ -3566,17 +3738,17 @@
       <c r="R84">
         <v>40</v>
       </c>
-      <c r="S84" t="s">
-        <v>21</v>
-      </c>
-      <c r="T84" s="13">
-        <v>2.5736303510483036E-12</v>
-      </c>
-      <c r="U84" s="13">
-        <v>3.0678492388202466E-12</v>
-      </c>
-      <c r="V84" s="14">
-        <v>3.9704298116110927E-3</v>
+      <c r="S84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T84" s="9">
+        <v>7.0393404618728962E-13</v>
+      </c>
+      <c r="U84" s="9">
+        <v>8.4309278387500475E-13</v>
+      </c>
+      <c r="V84" s="10">
+        <v>4.566021682063054E-16</v>
       </c>
       <c r="W84" s="10">
         <v>0</v>
@@ -3599,7 +3771,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-      <c r="S85" t="s">
+      <c r="S85" s="11" t="s">
         <v>25</v>
       </c>
       <c r="T85" s="9" t="s">
